--- a/KPIs.xlsx
+++ b/KPIs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -602,6 +605,7 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,7 +618,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Följd hyperlänk" xfId="3" builtinId="9" hidden="1"/>
@@ -888,6 +891,9 @@
                 <c:pt idx="4">
                   <c:v>81.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -902,11 +908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1903894256"/>
-        <c:axId val="1936721632"/>
+        <c:axId val="-863671392"/>
+        <c:axId val="-863669344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1903894256"/>
+        <c:axId val="-863671392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +955,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1936721632"/>
+        <c:crossAx val="-863669344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1936721632"/>
+        <c:axId val="-863669344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -1003,15 +1009,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Century Gothic" charset="0"/>
+                <a:ea typeface="Century Gothic" charset="0"/>
+                <a:cs typeface="Century Gothic" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1903894256"/>
+        <c:crossAx val="-863671392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1294,7 +1300,7 @@
                   <c:v>0.466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,19 +1362,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.918333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.866666666666667</c:v>
+                  <c:v>0.941666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.941666666666667</c:v>
+                  <c:v>0.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.918333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1448,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.791666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,11 +1462,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1862865360"/>
-        <c:axId val="1897943984"/>
+        <c:axId val="-863666448"/>
+        <c:axId val="-863664128"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1862865360"/>
+        <c:axId val="-863666448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1509,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1897943984"/>
+        <c:crossAx val="-863664128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1897943984"/>
+        <c:axId val="-863664128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1548,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1862865360"/>
+        <c:crossAx val="-863666448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,12 +1765,12 @@
                   <c:v>1.726618705035971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.461187214611872</c:v>
+                  <c:v>1.735159817351598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1775,11 +1781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1968199664"/>
-        <c:axId val="1964838064"/>
+        <c:axId val="-863614912"/>
+        <c:axId val="-863611376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1968199664"/>
+        <c:axId val="-863614912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1828,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964838064"/>
+        <c:crossAx val="-863611376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1830,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1964838064"/>
+        <c:axId val="-863611376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,6 +1857,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -1886,7 +1893,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1968199664"/>
+        <c:crossAx val="-863614912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3597,16 +3604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>205389</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>433614</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>199571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>40290</xdr:rowOff>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3630,15 +3637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>117147</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>208017</xdr:rowOff>
+      <xdr:colOff>770290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561647</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43794</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389290</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3661,13 +3668,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10072</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>107293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35910</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>72259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3955,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T42"/>
+  <dimension ref="A2:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4023,7 +4030,7 @@
       </c>
       <c r="G3" s="71">
         <f>'Upplevd arbetsbelastning'!H13</f>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4032,11 +4039,11 @@
       </c>
       <c r="C4" s="71">
         <f>'Psykosocial miljö'!C11</f>
-        <v>0.83333333333333337</v>
+        <v>0.91833333333333333</v>
       </c>
       <c r="D4" s="71">
         <f>'Psykosocial miljö'!I11</f>
-        <v>0.8666666666666667</v>
+        <v>0.94166666666666676</v>
       </c>
       <c r="E4" s="72">
         <f>'Psykosocial miljö'!O11</f>
@@ -4044,10 +4051,11 @@
       </c>
       <c r="F4" s="72">
         <f>'Psykosocial miljö'!U11</f>
-        <v>0.94166666666666676</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G4" s="72">
-        <v>0</v>
+        <f>'Psykosocial miljö'!C11</f>
+        <v>0.91833333333333333</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4071,34 +4079,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="72">
-        <v>0</v>
+        <f>'Godkända inkrement'!E9</f>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="71">
-        <f>Velocity!E6</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D6" s="71">
-        <f>Velocity!E7</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="E6" s="71">
-        <v>0</v>
-      </c>
-      <c r="F6" s="71">
-        <v>0</v>
-      </c>
-      <c r="G6" s="71">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>47</v>
@@ -4115,25 +4114,21 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="58"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="58"/>
-      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="58"/>
@@ -4148,14 +4143,11 @@
       <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
       <c r="D33" s="58"/>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="D34" s="58"/>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4169,7 +4161,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4268,14 +4260,14 @@
         <v>19</v>
       </c>
       <c r="C9" s="18">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D9" s="73">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E9" s="18">
         <f>IF(C9&gt;0,D9/C9,0)</f>
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -4285,21 +4277,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z15"/>
+  <dimension ref="A2:AF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="27" width="6.5" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="32" width="6.5" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
@@ -4308,41 +4300,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="87" t="s">
+    <row r="4" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="89"/>
-    </row>
-    <row r="5" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="90"/>
+    </row>
+    <row r="5" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4415,8 +4415,26 @@
       <c r="Z5" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -4431,70 +4449,88 @@
         <v>1</v>
       </c>
       <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="81">
+        <v>1</v>
+      </c>
+      <c r="J6" s="82">
+        <v>1</v>
+      </c>
+      <c r="K6" s="82">
+        <v>1</v>
+      </c>
+      <c r="L6" s="82">
+        <v>1</v>
+      </c>
+      <c r="M6" s="82">
+        <v>1</v>
+      </c>
+      <c r="N6" s="82">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>1</v>
+      </c>
+      <c r="R6" s="20">
+        <v>1</v>
+      </c>
+      <c r="S6" s="20">
+        <v>1</v>
+      </c>
+      <c r="T6" s="20">
+        <v>1</v>
+      </c>
+      <c r="U6" s="19">
+        <v>1</v>
+      </c>
+      <c r="V6" s="20">
+        <v>1</v>
+      </c>
+      <c r="W6" s="20">
+        <v>1</v>
+      </c>
+      <c r="X6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="20">
         <v>0.8</v>
       </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20">
-        <v>1</v>
-      </c>
-      <c r="K6" s="20">
-        <v>1</v>
-      </c>
-      <c r="L6" s="20">
-        <v>1</v>
-      </c>
-      <c r="M6" s="20">
-        <v>1</v>
-      </c>
-      <c r="N6" s="20">
-        <v>1</v>
-      </c>
-      <c r="O6" s="19">
-        <v>1</v>
-      </c>
-      <c r="P6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>1</v>
-      </c>
-      <c r="R6" s="20">
-        <v>1</v>
-      </c>
-      <c r="S6" s="20">
-        <v>1</v>
-      </c>
-      <c r="T6" s="20">
-        <v>1</v>
-      </c>
-      <c r="U6" s="81">
-        <v>1</v>
-      </c>
-      <c r="V6" s="82">
-        <v>1</v>
-      </c>
-      <c r="W6" s="82">
-        <v>1</v>
-      </c>
-      <c r="X6" s="82">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="82">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -4503,37 +4539,37 @@
         <v>1</v>
       </c>
       <c r="D7" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="83">
+        <v>1</v>
+      </c>
+      <c r="J7" s="84">
         <v>0.9</v>
       </c>
-      <c r="M7" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0.5</v>
+      <c r="K7" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="84">
+        <v>1</v>
+      </c>
+      <c r="M7" s="84">
+        <v>1</v>
+      </c>
+      <c r="N7" s="84">
+        <v>1</v>
       </c>
       <c r="O7" s="10">
         <v>1</v>
@@ -4553,26 +4589,44 @@
       <c r="T7" s="11">
         <v>0.5</v>
       </c>
-      <c r="U7" s="83">
-        <v>1</v>
-      </c>
-      <c r="V7" s="84">
+      <c r="U7" s="10">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="X7" s="11">
         <v>0.9</v>
       </c>
-      <c r="W7" s="84">
-        <v>0.9</v>
-      </c>
-      <c r="X7" s="84">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="84">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
@@ -4581,13 +4635,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="20">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="E8" s="20">
         <v>0.4</v>
       </c>
       <c r="F8" s="20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="20">
         <v>0.5</v>
@@ -4595,23 +4649,23 @@
       <c r="H8" s="20">
         <v>0.5</v>
       </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
+      <c r="I8" s="81">
+        <v>1</v>
+      </c>
+      <c r="J8" s="82">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="82">
         <v>0.5</v>
       </c>
-      <c r="K8" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="L8" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="N8" s="82">
         <v>0.6</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0.5</v>
       </c>
       <c r="O8" s="19">
         <v>0.9</v>
@@ -4631,26 +4685,44 @@
       <c r="T8" s="20">
         <v>0.5</v>
       </c>
-      <c r="U8" s="81">
-        <v>1</v>
-      </c>
-      <c r="V8" s="82">
-        <v>0.75</v>
-      </c>
-      <c r="W8" s="82">
+      <c r="U8" s="19">
+        <v>1</v>
+      </c>
+      <c r="V8" s="20">
         <v>0.5</v>
       </c>
-      <c r="X8" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="Y8" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="Z8" s="82">
+      <c r="W8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="Y8" s="20">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AF8" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -4659,76 +4731,94 @@
         <v>1</v>
       </c>
       <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="83">
+        <v>1</v>
+      </c>
+      <c r="J9" s="84">
+        <v>1</v>
+      </c>
+      <c r="K9" s="84">
+        <v>1</v>
+      </c>
+      <c r="L9" s="84">
+        <v>1</v>
+      </c>
+      <c r="M9" s="84">
+        <v>1</v>
+      </c>
+      <c r="N9" s="84">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11">
         <v>0.9</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="W9" s="11">
+        <v>1</v>
+      </c>
+      <c r="X9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="11">
         <v>0.8</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1</v>
-      </c>
-      <c r="O9" s="10">
-        <v>1</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1</v>
-      </c>
-      <c r="S9" s="11">
-        <v>1</v>
-      </c>
-      <c r="T9" s="11">
-        <v>1</v>
-      </c>
-      <c r="U9" s="83">
-        <v>1</v>
-      </c>
-      <c r="V9" s="84">
-        <v>1</v>
-      </c>
-      <c r="W9" s="84">
-        <v>1</v>
-      </c>
-      <c r="X9" s="84">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="84">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
@@ -4743,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G10" s="20">
         <v>1</v>
@@ -4751,23 +4841,23 @@
       <c r="H10" s="20">
         <v>1</v>
       </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20">
-        <v>1</v>
-      </c>
-      <c r="K10" s="20">
-        <v>1</v>
-      </c>
-      <c r="L10" s="20">
-        <v>1</v>
-      </c>
-      <c r="M10" s="20">
-        <v>1</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0.9</v>
+      <c r="I10" s="85">
+        <v>1</v>
+      </c>
+      <c r="J10" s="80">
+        <v>1</v>
+      </c>
+      <c r="K10" s="80">
+        <v>1</v>
+      </c>
+      <c r="L10" s="80">
+        <v>1</v>
+      </c>
+      <c r="M10" s="80">
+        <v>1</v>
+      </c>
+      <c r="N10" s="80">
+        <v>1</v>
       </c>
       <c r="O10" s="19">
         <v>0.6</v>
@@ -4787,48 +4877,66 @@
       <c r="T10" s="20">
         <v>0.6</v>
       </c>
-      <c r="U10" s="85">
-        <v>1</v>
-      </c>
-      <c r="V10" s="80">
-        <v>1</v>
-      </c>
-      <c r="W10" s="80">
-        <v>1</v>
-      </c>
-      <c r="X10" s="80">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="80">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="19">
+        <v>1</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1</v>
+      </c>
+      <c r="W10" s="20">
+        <v>1</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="12">
         <f>AVERAGE(C6:H10)</f>
-        <v>0.83333333333333337</v>
+        <v>0.91833333333333333</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="12">
+      <c r="I11" s="86">
         <f>AVERAGE(I6:N10)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="12">
         <f>AVERAGE(O6:T10)</f>
         <v>0.78999999999999992</v>
@@ -4838,17 +4946,26 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="86">
+      <c r="U11" s="12">
         <f>AVERAGE(U6:Z10)</f>
-        <v>0.94166666666666676</v>
-      </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="12">
+        <f>AVERAGE(AA6:AF10)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+    </row>
+    <row r="12" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -4857,44 +4974,49 @@
         <f>MIN(C6:H10)</f>
         <v>0.4</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="86">
         <f>MIN(I6:N10)</f>
-        <v>0.4</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="13">
         <f>MIN(O6:T10)</f>
         <v>0.1</v>
       </c>
-      <c r="U12" s="86">
+      <c r="U12" s="13">
         <f>MIN(U6:Z10)</f>
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+      <c r="AA12" s="13">
+        <f>MIN(AA6:AF10)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
       <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="63"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="O4:T4"/>
@@ -4910,7 +5032,7 @@
   <dimension ref="B4:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,7 +5130,10 @@
         <f>C10-60</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <f>D10-'Godkända inkrement'!D9</f>
+        <v>-14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5020,7 +5145,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5047,14 +5172,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="75" t="s">
         <v>14</v>
       </c>
@@ -5090,7 +5215,7 @@
         <v>0.7</v>
       </c>
       <c r="H6" s="34">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5111,7 +5236,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="37">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5132,7 +5257,7 @@
         <v>0.3</v>
       </c>
       <c r="H8" s="37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5153,7 +5278,7 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="37">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5174,7 +5299,7 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5195,7 +5320,7 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.2">
@@ -5230,7 +5355,7 @@
       </c>
       <c r="H13" s="49">
         <f>AVERAGE(H6:H11)</f>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5256,7 +5381,7 @@
       </c>
       <c r="H14" s="49">
         <f>MAX(H6:H11)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -5272,7 +5397,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5386,7 +5511,7 @@
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L9" s="87">
         <f>E6</f>
         <v>1.1499999999999999</v>
       </c>
@@ -5400,17 +5525,18 @@
         <v>54.75</v>
       </c>
       <c r="D10" s="51">
-        <v>80</v>
+        <f>'Godkända inkrement'!D9</f>
+        <v>95</v>
       </c>
       <c r="E10" s="79">
         <f>IF(C10&gt;0,D10/C10,0)</f>
-        <v>1.4611872146118721</v>
+        <v>1.7351598173515981</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="91">
-        <f t="shared" ref="L10:L14" si="0">E7</f>
+      <c r="L10" s="87">
+        <f t="shared" ref="L10:L13" si="0">E7</f>
         <v>0.72463768115942029</v>
       </c>
     </row>
@@ -5418,7 +5544,7 @@
       <c r="K11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="87">
         <f t="shared" si="0"/>
         <v>0.33613445378151263</v>
       </c>
@@ -5427,7 +5553,7 @@
       <c r="K12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="87">
         <f t="shared" si="0"/>
         <v>1.7266187050359711</v>
       </c>
@@ -5437,13 +5563,13 @@
       <c r="K13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="91">
+      <c r="L13" s="87">
         <f t="shared" si="0"/>
-        <v>1.4611872146118721</v>
+        <v>1.7351598173515981</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L14" s="91"/>
+      <c r="L14" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
